--- a/FullStack268-S01.xlsx
+++ b/FullStack268-S01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RachTUE\Desktop\fullstack-tue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RachTUE\Desktop\fullstack-268-S01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6163EB49-D751-4AB4-B4D0-850932419CCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66826287-7E73-4F0E-8C52-8BA475246C80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -687,18 +687,6 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -711,7 +699,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,144 +1067,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="19" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:23" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,24 +1220,24 @@
       <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
     </row>
     <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1326,7 +1326,9 @@
       <c r="J11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1362,7 +1364,9 @@
       <c r="J12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1398,7 +1402,9 @@
       <c r="J13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1434,7 +1440,9 @@
       <c r="J14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1470,7 +1478,9 @@
       <c r="J15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1510,7 +1520,9 @@
       <c r="J16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1546,7 +1558,9 @@
       <c r="J17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1582,7 +1596,9 @@
       <c r="J18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1618,7 +1634,9 @@
       <c r="J19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -1654,7 +1672,9 @@
       <c r="J20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -1690,7 +1710,9 @@
       <c r="J21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -1726,7 +1748,9 @@
       <c r="J22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -1762,7 +1786,9 @@
       <c r="J23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -1798,7 +1824,9 @@
       <c r="J24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -1834,7 +1862,9 @@
       <c r="J25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K25" s="7"/>
+      <c r="K25" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -1870,7 +1900,9 @@
       <c r="J26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -1906,7 +1938,9 @@
       <c r="J27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -1942,7 +1976,9 @@
       <c r="J28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -1978,7 +2014,9 @@
       <c r="J29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -2014,7 +2052,9 @@
       <c r="J30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K30" s="7"/>
+      <c r="K30" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -2050,7 +2090,9 @@
       <c r="J31" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -2086,7 +2128,9 @@
       <c r="J32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K32" s="7"/>
+      <c r="K32" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -2122,7 +2166,9 @@
       <c r="J33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K33" s="7"/>
+      <c r="K33" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -2158,7 +2204,9 @@
       <c r="J34" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -2194,7 +2242,9 @@
       <c r="J35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -2230,7 +2280,9 @@
       <c r="J36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -2266,7 +2318,9 @@
       <c r="J37" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K37" s="7"/>
+      <c r="K37" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -2302,7 +2356,9 @@
       <c r="J38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K38" s="7"/>
+      <c r="K38" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -2338,7 +2394,9 @@
       <c r="J39" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K39" s="7"/>
+      <c r="K39" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -2350,50 +2408,50 @@
       <c r="T39" s="7"/>
     </row>
     <row r="40" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
     </row>
     <row r="41" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E9:T9"/>
+    <mergeCell ref="E40:T40"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="F6:T6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A6:E7"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="E9:T9"/>
-    <mergeCell ref="E40:T40"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="F6:T6"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/FullStack268-S01.xlsx
+++ b/FullStack268-S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RachTUE\Desktop\fullstack-268-S01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66826287-7E73-4F0E-8C52-8BA475246C80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10988B26-662E-4DBD-B4B7-17E7F7D99E66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,6 +687,18 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -699,19 +711,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,144 +1067,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:23" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,24 +1220,24 @@
       <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1787,7 +1787,7 @@
         <v>78</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -1863,7 +1863,7 @@
         <v>78</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -2408,50 +2408,50 @@
       <c r="T39" s="7"/>
     </row>
     <row r="40" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="19" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
     </row>
     <row r="41" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="E9:T9"/>
-    <mergeCell ref="E40:T40"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="F6:T6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A6:E7"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E9:T9"/>
+    <mergeCell ref="E40:T40"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="F6:T6"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/FullStack268-S01.xlsx
+++ b/FullStack268-S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RachTUE\Desktop\fullstack-268-S01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10988B26-662E-4DBD-B4B7-17E7F7D99E66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017A4568-EE49-4454-A543-D293EB27BBC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="80">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -687,18 +687,6 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -711,7 +699,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,144 +1067,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="19" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:23" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,24 +1220,24 @@
       <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
     </row>
     <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1329,7 +1329,9 @@
       <c r="K11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1367,7 +1369,9 @@
       <c r="K12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1405,7 +1409,9 @@
       <c r="K13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1443,7 +1449,9 @@
       <c r="K14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1481,7 +1489,9 @@
       <c r="K15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1523,7 +1533,9 @@
       <c r="K16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1561,7 +1573,9 @@
       <c r="K17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1599,7 +1613,9 @@
       <c r="K18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1637,7 +1653,9 @@
       <c r="K19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1675,7 +1693,9 @@
       <c r="K20" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -1713,7 +1733,9 @@
       <c r="K21" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -1751,7 +1773,9 @@
       <c r="K22" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -1789,7 +1813,9 @@
       <c r="K23" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -1827,7 +1853,9 @@
       <c r="K24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -1865,7 +1893,9 @@
       <c r="K25" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -1903,7 +1933,9 @@
       <c r="K26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -1941,7 +1973,9 @@
       <c r="K27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -1979,7 +2013,9 @@
       <c r="K28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2017,7 +2053,9 @@
       <c r="K29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2055,7 +2093,9 @@
       <c r="K30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2093,7 +2133,9 @@
       <c r="K31" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -2131,7 +2173,9 @@
       <c r="K32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -2169,7 +2213,9 @@
       <c r="K33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L33" s="7"/>
+      <c r="L33" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -2207,7 +2253,9 @@
       <c r="K34" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -2245,7 +2293,9 @@
       <c r="K35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="7"/>
+      <c r="L35" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -2283,7 +2333,9 @@
       <c r="K36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L36" s="7"/>
+      <c r="L36" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -2321,7 +2373,9 @@
       <c r="K37" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -2359,7 +2413,9 @@
       <c r="K38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="7"/>
+      <c r="L38" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -2397,7 +2453,9 @@
       <c r="K39" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L39" s="7"/>
+      <c r="L39" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -2408,50 +2466,50 @@
       <c r="T39" s="7"/>
     </row>
     <row r="40" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
     </row>
     <row r="41" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E9:T9"/>
+    <mergeCell ref="E40:T40"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="F6:T6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A6:E7"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="E9:T9"/>
-    <mergeCell ref="E40:T40"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="F6:T6"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/FullStack268-S01.xlsx
+++ b/FullStack268-S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RachTUE\Desktop\fullstack-268-S01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017A4568-EE49-4454-A543-D293EB27BBC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6427E02A-EBF1-4A85-BB82-F359509F6C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,6 +687,18 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -699,19 +711,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,144 +1067,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:23" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,24 +1220,24 @@
       <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1894,7 +1894,7 @@
         <v>79</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -2466,50 +2466,50 @@
       <c r="T39" s="7"/>
     </row>
     <row r="40" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="19" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
     </row>
     <row r="41" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="E9:T9"/>
-    <mergeCell ref="E40:T40"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="F6:T6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A6:E7"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E9:T9"/>
+    <mergeCell ref="E40:T40"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="F6:T6"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
